--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Podxl2-Sell.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Podxl2-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Podxl2</t>
+  </si>
+  <si>
+    <t>Sell</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Podxl2</t>
-  </si>
-  <si>
-    <t>Sell</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.245351666666666</v>
+        <v>0.4923183333333332</v>
       </c>
       <c r="H2">
-        <v>3.736054999999999</v>
+        <v>1.476955</v>
       </c>
       <c r="I2">
-        <v>0.2495810593744999</v>
+        <v>0.3012090332017109</v>
       </c>
       <c r="J2">
-        <v>0.2495810593745</v>
+        <v>0.3012090332017109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N2">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O2">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P2">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q2">
-        <v>0.3181109692644444</v>
+        <v>0.4563761410899999</v>
       </c>
       <c r="R2">
-        <v>2.86299872338</v>
+        <v>4.107385269809999</v>
       </c>
       <c r="S2">
-        <v>0.0001973956403680998</v>
+        <v>0.0007729314919901363</v>
       </c>
       <c r="T2">
-        <v>0.0001973956403680999</v>
+        <v>0.0007729314919901361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.245351666666666</v>
+        <v>0.4923183333333332</v>
       </c>
       <c r="H3">
-        <v>3.736054999999999</v>
+        <v>1.476955</v>
       </c>
       <c r="I3">
-        <v>0.2495810593744999</v>
+        <v>0.3012090332017109</v>
       </c>
       <c r="J3">
-        <v>0.2495810593745</v>
+        <v>0.3012090332017109</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N3">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O3">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P3">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q3">
-        <v>62.57175466627555</v>
+        <v>45.84768749057611</v>
       </c>
       <c r="R3">
-        <v>563.1457919964799</v>
+        <v>412.629187415185</v>
       </c>
       <c r="S3">
-        <v>0.03882730485485848</v>
+        <v>0.07764893539734825</v>
       </c>
       <c r="T3">
-        <v>0.0388273048548585</v>
+        <v>0.07764893539734824</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.245351666666666</v>
+        <v>0.4923183333333332</v>
       </c>
       <c r="H4">
-        <v>3.736054999999999</v>
+        <v>1.476955</v>
       </c>
       <c r="I4">
-        <v>0.2495810593744999</v>
+        <v>0.3012090332017109</v>
       </c>
       <c r="J4">
-        <v>0.2495810593745</v>
+        <v>0.3012090332017109</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N4">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O4">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P4">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q4">
-        <v>320.6710992927255</v>
+        <v>130.4622874783172</v>
       </c>
       <c r="R4">
-        <v>2886.03989363453</v>
+        <v>1174.160587304855</v>
       </c>
       <c r="S4">
-        <v>0.1989842636951315</v>
+        <v>0.2209546061461962</v>
       </c>
       <c r="T4">
-        <v>0.1989842636951315</v>
+        <v>0.2209546061461961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.245351666666666</v>
+        <v>0.4923183333333332</v>
       </c>
       <c r="H5">
-        <v>3.736054999999999</v>
+        <v>1.476955</v>
       </c>
       <c r="I5">
-        <v>0.2495810593744999</v>
+        <v>0.3012090332017109</v>
       </c>
       <c r="J5">
-        <v>0.2495810593745</v>
+        <v>0.3012090332017109</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N5">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O5">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P5">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q5">
-        <v>18.64889421358611</v>
+        <v>1.082032166656111</v>
       </c>
       <c r="R5">
-        <v>167.840047922275</v>
+        <v>9.738289499904997</v>
       </c>
       <c r="S5">
-        <v>0.01157209518414187</v>
+        <v>0.001832560166176385</v>
       </c>
       <c r="T5">
-        <v>0.01157209518414188</v>
+        <v>0.001832560166176385</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -797,40 +797,40 @@
         <v>2.189789</v>
       </c>
       <c r="I6">
-        <v>0.1462852817816191</v>
+        <v>0.4465838347178767</v>
       </c>
       <c r="J6">
-        <v>0.1462852817816191</v>
+        <v>0.4465838347178766</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N6">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O6">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P6">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q6">
-        <v>0.1864522608137778</v>
+        <v>0.676640421422</v>
       </c>
       <c r="R6">
-        <v>1.678070347324</v>
+        <v>6.089763792798</v>
       </c>
       <c r="S6">
-        <v>0.0001156981901835013</v>
+        <v>0.001145977283609581</v>
       </c>
       <c r="T6">
-        <v>0.0001156981901835014</v>
+        <v>0.001145977283609581</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>2.189789</v>
       </c>
       <c r="I7">
-        <v>0.1462852817816191</v>
+        <v>0.4465838347178767</v>
       </c>
       <c r="J7">
-        <v>0.1462852817816191</v>
+        <v>0.4465838347178766</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N7">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O7">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P7">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q7">
-        <v>36.67476524807823</v>
+        <v>67.97550483413589</v>
       </c>
       <c r="R7">
-        <v>330.0728872327041</v>
+        <v>611.779543507223</v>
       </c>
       <c r="S7">
-        <v>0.02275758924074076</v>
+        <v>0.1151252303521935</v>
       </c>
       <c r="T7">
-        <v>0.02275758924074077</v>
+        <v>0.1151252303521934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>2.189789</v>
       </c>
       <c r="I8">
-        <v>0.1462852817816191</v>
+        <v>0.4465838347178767</v>
       </c>
       <c r="J8">
-        <v>0.1462852817816191</v>
+        <v>0.4465838347178766</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N8">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O8">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P8">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q8">
-        <v>187.9528127527882</v>
+        <v>193.4282913391788</v>
       </c>
       <c r="R8">
-        <v>1691.575314775094</v>
+        <v>1740.854622052609</v>
       </c>
       <c r="S8">
-        <v>0.1166293193790505</v>
+        <v>0.3275956044959209</v>
       </c>
       <c r="T8">
-        <v>0.1166293193790505</v>
+        <v>0.3275956044959208</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>2.189789</v>
       </c>
       <c r="I9">
-        <v>0.1462852817816191</v>
+        <v>0.4465838347178767</v>
       </c>
       <c r="J9">
-        <v>0.1462852817816191</v>
+        <v>0.4465838347178766</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N9">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O9">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P9">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q9">
-        <v>10.93055198894944</v>
+        <v>1.604261562599889</v>
       </c>
       <c r="R9">
-        <v>98.37496790054502</v>
+        <v>14.438354063399</v>
       </c>
       <c r="S9">
-        <v>0.006782674971644384</v>
+        <v>0.00271702258615274</v>
       </c>
       <c r="T9">
-        <v>0.006782674971644385</v>
+        <v>0.00271702258615274</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.3424393333333334</v>
+      </c>
+      <c r="H10">
+        <v>1.027318</v>
+      </c>
+      <c r="I10">
+        <v>0.2095104194580846</v>
+      </c>
+      <c r="J10">
+        <v>0.2095104194580846</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="L10">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G10">
-        <v>0.162711</v>
-      </c>
-      <c r="H10">
-        <v>0.488133</v>
-      </c>
-      <c r="I10">
-        <v>0.03260892873784053</v>
-      </c>
-      <c r="J10">
-        <v>0.03260892873784053</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M10">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N10">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O10">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P10">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q10">
-        <v>0.04156268089199999</v>
+        <v>0.3174392073640001</v>
       </c>
       <c r="R10">
-        <v>0.374064128028</v>
+        <v>2.856952866276</v>
       </c>
       <c r="S10">
-        <v>2.579066050146523E-05</v>
+        <v>0.000537623986166351</v>
       </c>
       <c r="T10">
-        <v>2.579066050146524E-05</v>
+        <v>0.0005376239861663509</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.162711</v>
+        <v>0.3424393333333334</v>
       </c>
       <c r="H11">
-        <v>0.488133</v>
+        <v>1.027318</v>
       </c>
       <c r="I11">
-        <v>0.03260892873784053</v>
+        <v>0.2095104194580846</v>
       </c>
       <c r="J11">
-        <v>0.03260892873784053</v>
+        <v>0.2095104194580846</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N11">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O11">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P11">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q11">
-        <v>8.175291402432</v>
+        <v>31.89004039895845</v>
       </c>
       <c r="R11">
-        <v>73.57762262188801</v>
+        <v>287.0103635906261</v>
       </c>
       <c r="S11">
-        <v>0.005072968358527013</v>
+        <v>0.05400987099439931</v>
       </c>
       <c r="T11">
-        <v>0.005072968358527013</v>
+        <v>0.0540098709943993</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.162711</v>
+        <v>0.3424393333333334</v>
       </c>
       <c r="H12">
-        <v>0.488133</v>
+        <v>1.027318</v>
       </c>
       <c r="I12">
-        <v>0.03260892873784053</v>
+        <v>0.2095104194580846</v>
       </c>
       <c r="J12">
-        <v>0.03260892873784053</v>
+        <v>0.2095104194580846</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N12">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O12">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P12">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q12">
-        <v>41.897173813302</v>
+        <v>90.7449829193509</v>
       </c>
       <c r="R12">
-        <v>377.074564319718</v>
+        <v>816.7048462741581</v>
       </c>
       <c r="S12">
-        <v>0.02599822154392685</v>
+        <v>0.1536882600193628</v>
       </c>
       <c r="T12">
-        <v>0.02599822154392686</v>
+        <v>0.1536882600193628</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.162711</v>
+        <v>0.3424393333333334</v>
       </c>
       <c r="H13">
-        <v>0.488133</v>
+        <v>1.027318</v>
       </c>
       <c r="I13">
-        <v>0.03260892873784053</v>
+        <v>0.2095104194580846</v>
       </c>
       <c r="J13">
-        <v>0.03260892873784053</v>
+        <v>0.2095104194580846</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N13">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O13">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P13">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q13">
-        <v>2.436564953985</v>
+        <v>0.7526235541264444</v>
       </c>
       <c r="R13">
-        <v>21.929084585865</v>
+        <v>6.773611987138001</v>
       </c>
       <c r="S13">
-        <v>0.0015119481748852</v>
+        <v>0.001274664458156133</v>
       </c>
       <c r="T13">
-        <v>0.0015119481748852</v>
+        <v>0.001274664458156133</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.696443</v>
+        <v>0.06978666666666666</v>
       </c>
       <c r="H14">
-        <v>8.089328999999999</v>
+        <v>0.20936</v>
       </c>
       <c r="I14">
-        <v>0.5403944271293823</v>
+        <v>0.04269671262232783</v>
       </c>
       <c r="J14">
-        <v>0.5403944271293825</v>
+        <v>0.04269671262232783</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.2554386666666666</v>
+        <v>0.926994</v>
       </c>
       <c r="N14">
-        <v>0.766316</v>
+        <v>2.780982</v>
       </c>
       <c r="O14">
-        <v>0.0007909079353329646</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="P14">
-        <v>0.0007909079353329647</v>
+        <v>0.002566096653125693</v>
       </c>
       <c r="Q14">
-        <v>0.6887758046626666</v>
+        <v>0.06469182127999999</v>
       </c>
       <c r="R14">
-        <v>6.198982241963999</v>
+        <v>0.5822263915199999</v>
       </c>
       <c r="S14">
-        <v>0.00042740224062634</v>
+        <v>0.000109563891359625</v>
       </c>
       <c r="T14">
-        <v>0.0004274022406263402</v>
+        <v>0.000109563891359625</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.696443</v>
+        <v>0.06978666666666666</v>
       </c>
       <c r="H15">
-        <v>8.089328999999999</v>
+        <v>0.20936</v>
       </c>
       <c r="I15">
-        <v>0.5403944271293823</v>
+        <v>0.04269671262232783</v>
       </c>
       <c r="J15">
-        <v>0.5403944271293825</v>
+        <v>0.04269671262232783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>50.24424533333334</v>
+        <v>93.12610233333334</v>
       </c>
       <c r="N15">
-        <v>150.732736</v>
+        <v>279.378307</v>
       </c>
       <c r="O15">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="P15">
-        <v>0.1555699176538776</v>
+        <v>0.2577908589658698</v>
       </c>
       <c r="Q15">
-        <v>135.4807436193493</v>
+        <v>6.498960261502222</v>
       </c>
       <c r="R15">
-        <v>1219.326692574144</v>
+        <v>58.49064235352</v>
       </c>
       <c r="S15">
-        <v>0.08406911652913235</v>
+        <v>0.01100682222192879</v>
       </c>
       <c r="T15">
-        <v>0.08406911652913238</v>
+        <v>0.01100682222192879</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.696443</v>
+        <v>0.06978666666666666</v>
       </c>
       <c r="H16">
-        <v>8.089328999999999</v>
+        <v>0.20936</v>
       </c>
       <c r="I16">
-        <v>0.5403944271293823</v>
+        <v>0.04269671262232783</v>
       </c>
       <c r="J16">
-        <v>0.5403944271293825</v>
+        <v>0.04269671262232783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>257.4944153333333</v>
+        <v>264.9957936666667</v>
       </c>
       <c r="N16">
-        <v>772.483246</v>
+        <v>794.9873809999999</v>
       </c>
       <c r="O16">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="P16">
-        <v>0.7972730951372106</v>
+        <v>0.733559029746061</v>
       </c>
       <c r="Q16">
-        <v>694.3190137646593</v>
+        <v>18.49317312068444</v>
       </c>
       <c r="R16">
-        <v>6248.871123881933</v>
+        <v>166.43855808616</v>
       </c>
       <c r="S16">
-        <v>0.4308419375123425</v>
+        <v>0.0313205590845812</v>
       </c>
       <c r="T16">
-        <v>0.4308419375123426</v>
+        <v>0.03132055908458119</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>2.696443</v>
+        <v>0.06978666666666666</v>
       </c>
       <c r="H17">
-        <v>8.089328999999999</v>
+        <v>0.20936</v>
       </c>
       <c r="I17">
-        <v>0.5403944271293823</v>
+        <v>0.04269671262232783</v>
       </c>
       <c r="J17">
-        <v>0.5403944271293825</v>
+        <v>0.04269671262232783</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,524 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.97480166666667</v>
+        <v>2.197830333333333</v>
       </c>
       <c r="N17">
-        <v>44.924405</v>
+        <v>6.593490999999999</v>
       </c>
       <c r="O17">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="P17">
-        <v>0.04636607927357893</v>
+        <v>0.006084014634943477</v>
       </c>
       <c r="Q17">
-        <v>40.37869913047167</v>
+        <v>0.1533792528622222</v>
       </c>
       <c r="R17">
-        <v>363.408292174245</v>
+        <v>1.38041327576</v>
       </c>
       <c r="S17">
-        <v>0.02505597084728121</v>
+        <v>0.0002597674244582184</v>
       </c>
       <c r="T17">
-        <v>0.02505597084728122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.033534</v>
-      </c>
-      <c r="H18">
-        <v>0.100602</v>
-      </c>
-      <c r="I18">
-        <v>0.00672055249057989</v>
-      </c>
-      <c r="J18">
-        <v>0.00672055249057989</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.2554386666666666</v>
-      </c>
-      <c r="N18">
-        <v>0.766316</v>
-      </c>
-      <c r="O18">
-        <v>0.0007909079353329646</v>
-      </c>
-      <c r="P18">
-        <v>0.0007909079353329647</v>
-      </c>
-      <c r="Q18">
-        <v>0.008565880248</v>
-      </c>
-      <c r="R18">
-        <v>0.077092922232</v>
-      </c>
-      <c r="S18">
-        <v>5.315338294621354E-06</v>
-      </c>
-      <c r="T18">
-        <v>5.315338294621355E-06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.033534</v>
-      </c>
-      <c r="H19">
-        <v>0.100602</v>
-      </c>
-      <c r="I19">
-        <v>0.00672055249057989</v>
-      </c>
-      <c r="J19">
-        <v>0.00672055249057989</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>50.24424533333334</v>
-      </c>
-      <c r="N19">
-        <v>150.732736</v>
-      </c>
-      <c r="O19">
-        <v>0.1555699176538776</v>
-      </c>
-      <c r="P19">
-        <v>0.1555699176538776</v>
-      </c>
-      <c r="Q19">
-        <v>1.684890523008</v>
-      </c>
-      <c r="R19">
-        <v>15.164014707072</v>
-      </c>
-      <c r="S19">
-        <v>0.001045515797548075</v>
-      </c>
-      <c r="T19">
-        <v>0.001045515797548075</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.033534</v>
-      </c>
-      <c r="H20">
-        <v>0.100602</v>
-      </c>
-      <c r="I20">
-        <v>0.00672055249057989</v>
-      </c>
-      <c r="J20">
-        <v>0.00672055249057989</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>257.4944153333333</v>
-      </c>
-      <c r="N20">
-        <v>772.483246</v>
-      </c>
-      <c r="O20">
-        <v>0.7972730951372106</v>
-      </c>
-      <c r="P20">
-        <v>0.7972730951372106</v>
-      </c>
-      <c r="Q20">
-        <v>8.634817723788</v>
-      </c>
-      <c r="R20">
-        <v>77.71335951409201</v>
-      </c>
-      <c r="S20">
-        <v>0.005358115685196718</v>
-      </c>
-      <c r="T20">
-        <v>0.005358115685196718</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.033534</v>
-      </c>
-      <c r="H21">
-        <v>0.100602</v>
-      </c>
-      <c r="I21">
-        <v>0.00672055249057989</v>
-      </c>
-      <c r="J21">
-        <v>0.00672055249057989</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>14.97480166666667</v>
-      </c>
-      <c r="N21">
-        <v>44.924405</v>
-      </c>
-      <c r="O21">
-        <v>0.04636607927357893</v>
-      </c>
-      <c r="P21">
-        <v>0.04636607927357893</v>
-      </c>
-      <c r="Q21">
-        <v>0.50216499909</v>
-      </c>
-      <c r="R21">
-        <v>4.51948499181</v>
-      </c>
-      <c r="S21">
-        <v>0.0003116056695404755</v>
-      </c>
-      <c r="T21">
-        <v>0.0003116056695404755</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.121799</v>
-      </c>
-      <c r="H22">
-        <v>0.365397</v>
-      </c>
-      <c r="I22">
-        <v>0.02440975048607801</v>
-      </c>
-      <c r="J22">
-        <v>0.02440975048607801</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.2554386666666666</v>
-      </c>
-      <c r="N22">
-        <v>0.766316</v>
-      </c>
-      <c r="O22">
-        <v>0.0007909079353329646</v>
-      </c>
-      <c r="P22">
-        <v>0.0007909079353329647</v>
-      </c>
-      <c r="Q22">
-        <v>0.03111217416133333</v>
-      </c>
-      <c r="R22">
-        <v>0.280009567452</v>
-      </c>
-      <c r="S22">
-        <v>1.930586535893678E-05</v>
-      </c>
-      <c r="T22">
-        <v>1.930586535893679E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.121799</v>
-      </c>
-      <c r="H23">
-        <v>0.365397</v>
-      </c>
-      <c r="I23">
-        <v>0.02440975048607801</v>
-      </c>
-      <c r="J23">
-        <v>0.02440975048607801</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>50.24424533333334</v>
-      </c>
-      <c r="N23">
-        <v>150.732736</v>
-      </c>
-      <c r="O23">
-        <v>0.1555699176538776</v>
-      </c>
-      <c r="P23">
-        <v>0.1555699176538776</v>
-      </c>
-      <c r="Q23">
-        <v>6.119698837354667</v>
-      </c>
-      <c r="R23">
-        <v>55.077289536192</v>
-      </c>
-      <c r="S23">
-        <v>0.003797422873070853</v>
-      </c>
-      <c r="T23">
-        <v>0.003797422873070854</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.121799</v>
-      </c>
-      <c r="H24">
-        <v>0.365397</v>
-      </c>
-      <c r="I24">
-        <v>0.02440975048607801</v>
-      </c>
-      <c r="J24">
-        <v>0.02440975048607801</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>257.4944153333333</v>
-      </c>
-      <c r="N24">
-        <v>772.483246</v>
-      </c>
-      <c r="O24">
-        <v>0.7972730951372106</v>
-      </c>
-      <c r="P24">
-        <v>0.7972730951372106</v>
-      </c>
-      <c r="Q24">
-        <v>31.36256229318466</v>
-      </c>
-      <c r="R24">
-        <v>282.263060638662</v>
-      </c>
-      <c r="S24">
-        <v>0.01946123732156244</v>
-      </c>
-      <c r="T24">
-        <v>0.01946123732156245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.121799</v>
-      </c>
-      <c r="H25">
-        <v>0.365397</v>
-      </c>
-      <c r="I25">
-        <v>0.02440975048607801</v>
-      </c>
-      <c r="J25">
-        <v>0.02440975048607801</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>14.97480166666667</v>
-      </c>
-      <c r="N25">
-        <v>44.924405</v>
-      </c>
-      <c r="O25">
-        <v>0.04636607927357893</v>
-      </c>
-      <c r="P25">
-        <v>0.04636607927357893</v>
-      </c>
-      <c r="Q25">
-        <v>1.823915868198333</v>
-      </c>
-      <c r="R25">
-        <v>16.415242813785</v>
-      </c>
-      <c r="S25">
-        <v>0.001131784426085775</v>
-      </c>
-      <c r="T25">
-        <v>0.001131784426085775</v>
+        <v>0.0002597674244582184</v>
       </c>
     </row>
   </sheetData>
